--- a/XLSX/CORRESP_e_INDICE.xlsx
+++ b/XLSX/CORRESP_e_INDICE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coelh\Pessoal\TI\CURSOS\Hashtag\ExcelCompleto\Aulas\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EE2744-2285-4212-85E0-DC2D2C1C767C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C399C-B0C5-43BD-B406-AD60F36C6739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
@@ -25,6 +25,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CORRESP&amp;RESUMO'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ÍNDICE!$B$1:$D$309</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ÍNDICECORRESP!$B$1:$D$309</definedName>
+    <definedName name="Código">ÍNDICECORRESP!$B$2:$B$16</definedName>
+    <definedName name="Marca">ÍNDICECORRESP!$D$2:$D$16</definedName>
+    <definedName name="Produto">ÍNDICECORRESP!$A$2:$A$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="50">
   <si>
     <t>Marca</t>
   </si>
@@ -318,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -326,12 +329,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -380,6 +398,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3519,7 +3538,7 @@
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3960,7 +3979,7 @@
   <dimension ref="A1:G309"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4059,7 +4078,7 @@
         <v>44</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4079,7 +4098,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4098,9 +4117,9 @@
       <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="9" t="str" cm="1">
+      <c r="G7" s="9" cm="1">
         <f t="array" ref="G7">INDEX($A$2:$D$16,$G$5,$G$6)</f>
-        <v>Alpha</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5362,7 +5381,7 @@
   <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5373,8 +5392,7 @@
     <col min="4" max="4" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -5396,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5454,15 +5472,15 @@
       </c>
       <c r="G4" s="4">
         <f>MATCH($G$1,$B$2:$B$16,0)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="str" cm="1">
         <f t="array" ref="H4">INDEX($A$2:$A$16,$G$4)</f>
-        <v>Produto 10</v>
+        <v>Produto 14</v>
       </c>
       <c r="I4" s="20" t="str">
         <f>INDEX($A$2:$A$16,MATCH($G$1,$B$2:$B$16,0))</f>
-        <v>Produto 10</v>
+        <v>Produto 14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5483,15 +5501,15 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G6" si="0">MATCH($G$1,$B$2:$B$16,0)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5" cm="1">
         <f t="array" ref="H5">INDEX($C$2:$C$16,$G$5)</f>
-        <v>6531</v>
+        <v>948</v>
       </c>
       <c r="I5" s="21">
         <f>INDEX($C$2:$C$16,MATCH($G$1,$B$2:$B$16,0))</f>
-        <v>6531</v>
+        <v>948</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5512,15 +5530,15 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="str" cm="1">
         <f t="array" ref="H6">INDEX($D$2:$D$16,$G$6)</f>
-        <v>Alpha</v>
+        <v>Delta</v>
       </c>
       <c r="I6" s="21" t="str">
         <f>INDEX($D$2:$D$16,MATCH($G$1,$B$2:$B$16,0))</f>
-        <v>Alpha</v>
+        <v>Delta</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5606,6 +5624,13 @@
       <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="22" t="str">
+        <f>INDEX(Produto,MATCH(G1,Código,0))</f>
+        <v>Produto 14</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -5619,6 +5644,13 @@
       </c>
       <c r="D13" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22" t="str">
+        <f>INDEX(Marca,MATCH(G1,Código,0))</f>
+        <v>Delta</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
